--- a/data/Processed.xlsx
+++ b/data/Processed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13700" yWindow="0" windowWidth="12660" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="-100" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
     <t>Location</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Dem</t>
+  </si>
+  <si>
+    <t>MixedVotingPower</t>
   </si>
 </sst>
 </file>
@@ -352,7 +355,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -392,8 +395,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -411,8 +424,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="49">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -432,6 +446,11 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -450,6 +469,11 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -780,14 +804,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1880" ySplit="560" topLeftCell="A29" activePane="bottomRight"/>
+      <pane xSplit="22840" ySplit="560" topLeftCell="A36" activePane="bottomLeft"/>
       <selection activeCell="I35" sqref="I35"/>
       <selection pane="topRight" activeCell="K1" sqref="K1:K1048576"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -888,7 +912,7 @@
         <v>73</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>75</v>
@@ -1020,56 +1044,56 @@
         <v>0.27</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" ref="K3:K53" si="3">J3*B3</f>
+        <f>J3*B3</f>
         <v>1013980.41</v>
       </c>
       <c r="L3" s="7">
-        <f t="shared" ref="L3:L53" si="4">K3*F3</f>
+        <f>K3*F3</f>
         <v>1119126.6038475835</v>
       </c>
       <c r="M3" s="1">
         <v>0.04</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" ref="N3:N53" si="5">247773709*M3</f>
-        <v>9910948.3599999994</v>
+        <f>B3*M3</f>
+        <v>150219.32</v>
       </c>
       <c r="O3" s="7">
-        <f t="shared" ref="O3:O53" si="6">N3*F3</f>
-        <v>10938678.765041996</v>
+        <f t="shared" ref="O3:O53" si="3">N3*F3</f>
+        <v>165796.53390334573</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
       </c>
       <c r="Q3" s="7">
-        <f t="shared" ref="Q3:Q53" si="7">247773709*P3</f>
+        <f>B3*P3</f>
         <v>0</v>
       </c>
       <c r="R3" s="7">
-        <f t="shared" ref="R3:R53" si="8">Q3*F3</f>
+        <f t="shared" ref="R3:R53" si="4">Q3*F3</f>
         <v>0</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
       </c>
       <c r="T3" s="7">
-        <f t="shared" ref="T3:T53" si="9">247773709*S3</f>
+        <f>B3*S3</f>
         <v>0</v>
       </c>
       <c r="U3" s="7">
-        <f t="shared" ref="U3:U53" si="10">T3*F3</f>
+        <f t="shared" ref="U3:U53" si="5">T3*F3</f>
         <v>0</v>
       </c>
       <c r="V3" s="1">
         <v>0.02</v>
       </c>
       <c r="W3" s="7">
-        <f t="shared" ref="W3:W53" si="11">247773709*V3</f>
-        <v>4955474.18</v>
+        <f>B3*V3</f>
+        <v>75109.66</v>
       </c>
       <c r="X3" s="7">
-        <f t="shared" ref="X3:X53" si="12">W3*F3</f>
-        <v>5469339.3825209979</v>
+        <f t="shared" ref="X3:X53" si="6">W3*F3</f>
+        <v>82898.266951672864</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>76</v>
@@ -1101,67 +1125,67 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" ref="H4:H53" si="13">G4*B4</f>
+        <f t="shared" ref="H4:H53" si="7">G4*B4</f>
         <v>320256.27999999997</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" ref="I4:I53" si="14">H4*F4</f>
+        <f t="shared" ref="I4:I53" si="8">H4*F4</f>
         <v>801349.91386617091</v>
       </c>
       <c r="J4" s="1">
         <v>0.03</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K3:K53" si="9">J4*B4</f>
         <v>16564.98</v>
       </c>
       <c r="L4" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="L3:L53" si="10">K4*F4</f>
         <v>41449.133475836425</v>
       </c>
       <c r="M4" s="1">
         <v>0.06</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" si="5"/>
-        <v>14866422.539999999</v>
+        <f t="shared" ref="N4:N53" si="11">B4*M4</f>
+        <v>33129.96</v>
       </c>
       <c r="O4" s="7">
-        <f t="shared" si="6"/>
-        <v>37198978.336746752</v>
+        <f t="shared" si="3"/>
+        <v>82898.266951672849</v>
       </c>
       <c r="P4" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q4" s="7">
-        <f t="shared" si="7"/>
-        <v>17344159.630000003</v>
+        <f t="shared" ref="Q4:Q53" si="12">B4*P4</f>
+        <v>38651.620000000003</v>
       </c>
       <c r="R4" s="7">
-        <f t="shared" si="8"/>
-        <v>43398808.059537888</v>
+        <f t="shared" si="4"/>
+        <v>96714.644776951667</v>
       </c>
       <c r="S4" s="1">
         <v>0.16</v>
       </c>
       <c r="T4" s="7">
-        <f t="shared" si="9"/>
-        <v>39643793.439999998</v>
+        <f t="shared" ref="T4:T53" si="13">B4*S4</f>
+        <v>88346.559999999998</v>
       </c>
       <c r="U4" s="7">
-        <f t="shared" si="10"/>
-        <v>99197275.564658001</v>
+        <f t="shared" si="5"/>
+        <v>221062.04520446094</v>
       </c>
       <c r="V4" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W4" s="7">
-        <f t="shared" si="11"/>
-        <v>17344159.630000003</v>
+        <f t="shared" ref="W4:W53" si="14">B4*V4</f>
+        <v>38651.620000000003</v>
       </c>
       <c r="X4" s="7">
-        <f t="shared" si="12"/>
-        <v>43398808.059537888</v>
+        <f t="shared" si="6"/>
+        <v>96714.644776951667</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>76</v>
@@ -1193,67 +1217,67 @@
         <v>0.51</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>2654659.65</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2583662.6533271372</v>
       </c>
       <c r="J5" s="1">
         <v>0.04</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>208208.6</v>
       </c>
       <c r="L5" s="7">
-        <f t="shared" si="4"/>
+        <f>K5*F5</f>
         <v>202640.20810408922</v>
       </c>
       <c r="M5" s="1">
         <v>0.37</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" si="5"/>
-        <v>91676272.329999998</v>
+        <f t="shared" si="11"/>
+        <v>1925929.55</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" si="6"/>
-        <v>89224455.200978041</v>
+        <f>N5*F5</f>
+        <v>1874421.9249628254</v>
       </c>
       <c r="P5" s="1">
         <v>0.03</v>
       </c>
       <c r="Q5" s="7">
-        <f t="shared" si="7"/>
-        <v>7433211.2699999996</v>
+        <f t="shared" si="12"/>
+        <v>156156.44999999998</v>
       </c>
       <c r="R5" s="7">
-        <f t="shared" si="8"/>
-        <v>7234415.2865657862</v>
+        <f t="shared" si="4"/>
+        <v>151980.15607806688</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
       </c>
       <c r="T5" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U5" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V5" s="1">
         <v>0.02</v>
       </c>
       <c r="W5" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>104104.3</v>
       </c>
       <c r="X5" s="7">
-        <f t="shared" si="12"/>
-        <v>4822943.5243771905</v>
+        <f t="shared" si="6"/>
+        <v>101320.10405204461</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>76</v>
@@ -1285,67 +1309,67 @@
         <v>0.74</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1681948.96</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2044823.9181412638</v>
       </c>
       <c r="J6" s="1">
         <v>0.15</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>340935.6</v>
       </c>
       <c r="L6" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>414491.33475836425</v>
       </c>
       <c r="M6" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" si="5"/>
-        <v>17344159.630000003</v>
+        <f t="shared" si="11"/>
+        <v>159103.28000000003</v>
       </c>
       <c r="O6" s="7">
-        <f t="shared" si="6"/>
-        <v>21086105.045354135</v>
+        <f t="shared" si="3"/>
+        <v>193429.28955390336</v>
       </c>
       <c r="P6" s="1">
         <v>0.02</v>
       </c>
       <c r="Q6" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>45458.080000000002</v>
       </c>
       <c r="R6" s="7">
-        <f t="shared" si="8"/>
-        <v>6024601.4415297518</v>
+        <f>Q6*F6</f>
+        <v>55265.511301115243</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
       </c>
       <c r="T6" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U6" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V6" s="1">
         <v>0.02</v>
       </c>
       <c r="W6" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>45458.080000000002</v>
       </c>
       <c r="X6" s="7">
-        <f t="shared" si="12"/>
-        <v>6024601.4415297518</v>
+        <f t="shared" si="6"/>
+        <v>55265.511301115243</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>76</v>
@@ -1377,67 +1401,67 @@
         <v>0.39</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>11709321.780000001</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>9878710.1450743508</v>
       </c>
       <c r="J7" s="1">
         <v>0.06</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1801434.1199999999</v>
       </c>
       <c r="L7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1519801.5607806691</v>
       </c>
       <c r="M7" s="1">
         <v>0.38</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" si="5"/>
-        <v>94154009.420000002</v>
+        <f t="shared" si="11"/>
+        <v>11409082.76</v>
       </c>
       <c r="O7" s="7">
-        <f t="shared" si="6"/>
-        <v>79434162.416260794</v>
+        <f t="shared" si="3"/>
+        <v>9625409.8849442378</v>
       </c>
       <c r="P7" s="1">
         <v>0.15</v>
       </c>
       <c r="Q7" s="7">
-        <f t="shared" si="7"/>
-        <v>37166056.350000001</v>
+        <f t="shared" si="12"/>
+        <v>4503585.3</v>
       </c>
       <c r="R7" s="7">
-        <f t="shared" si="8"/>
-        <v>31355590.427471366</v>
+        <f>Q7*F7</f>
+        <v>3799503.901951673</v>
       </c>
       <c r="S7" s="1">
         <v>0.01</v>
       </c>
       <c r="T7" s="7">
-        <f t="shared" si="9"/>
-        <v>2477737.09</v>
+        <f t="shared" si="13"/>
+        <v>300239.02</v>
       </c>
       <c r="U7" s="7">
-        <f t="shared" si="10"/>
-        <v>2090372.6951647575</v>
+        <f t="shared" si="5"/>
+        <v>253300.26013011154</v>
       </c>
       <c r="V7" s="1">
         <v>0.02</v>
       </c>
       <c r="W7" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>600478.04</v>
       </c>
       <c r="X7" s="7">
-        <f t="shared" si="12"/>
-        <v>4180745.3903295151</v>
+        <f t="shared" si="6"/>
+        <v>506600.52026022307</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>77</v>
@@ -1469,67 +1493,67 @@
         <v>0.69</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>2897661.21</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2859990.2098327139</v>
       </c>
       <c r="J8" s="1">
         <v>0.04</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>167980.36000000002</v>
       </c>
       <c r="L8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>165796.53390334573</v>
       </c>
       <c r="M8" s="1">
         <v>0.21</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="5"/>
-        <v>52032478.890000001</v>
+        <f t="shared" si="11"/>
+        <v>881896.89</v>
       </c>
       <c r="O8" s="7">
-        <f t="shared" si="6"/>
-        <v>51356031.445348762</v>
+        <f t="shared" si="3"/>
+        <v>870431.80299256509</v>
       </c>
       <c r="P8" s="1">
         <v>0.03</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" si="7"/>
-        <v>7433211.2699999996</v>
+        <f t="shared" si="12"/>
+        <v>125985.26999999999</v>
       </c>
       <c r="R8" s="7">
-        <f t="shared" si="8"/>
-        <v>7336575.9207641091</v>
+        <f t="shared" si="4"/>
+        <v>124347.40042750929</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
       </c>
       <c r="T8" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U8" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V8" s="1">
         <v>0.02</v>
       </c>
       <c r="W8" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>83990.180000000008</v>
       </c>
       <c r="X8" s="7">
-        <f t="shared" si="12"/>
-        <v>4891050.6138427388</v>
+        <f t="shared" si="6"/>
+        <v>82898.266951672864</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>77</v>
@@ -1561,66 +1585,66 @@
         <v>0.7</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1978778.9</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2256675.0447955392</v>
       </c>
       <c r="J9" s="1">
         <v>0.09</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>254414.43</v>
       </c>
       <c r="L9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290143.93433085503</v>
       </c>
       <c r="M9" s="1">
         <v>0.15</v>
       </c>
       <c r="N9" s="6">
-        <f t="shared" si="5"/>
-        <v>37166056.350000001</v>
+        <f t="shared" si="11"/>
+        <v>424024.05</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="6"/>
-        <v>42385590.365103342</v>
+        <f t="shared" si="3"/>
+        <v>483573.22388475836</v>
       </c>
       <c r="P9" s="1">
         <v>0.04</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" si="7"/>
-        <v>9910948.3599999994</v>
+        <f t="shared" si="12"/>
+        <v>113073.08</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" si="8"/>
-        <v>11302824.097360888</v>
+        <f t="shared" si="4"/>
+        <v>128952.85970260223</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
       <c r="T9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U9" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V9" s="1">
         <v>0</v>
       </c>
       <c r="W9" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X9" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y9" s="1" t="s">
@@ -1653,66 +1677,66 @@
         <v>0.63</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>467175.24</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>870431.80299256498</v>
       </c>
       <c r="J10" s="1">
         <v>0.21</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>155725.07999999999</v>
       </c>
       <c r="L10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>290143.93433085497</v>
       </c>
       <c r="M10" s="1">
         <v>0.1</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" si="5"/>
-        <v>24777370.900000002</v>
+        <f t="shared" si="11"/>
+        <v>74154.8</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="6"/>
-        <v>46164714.606669895</v>
+        <f t="shared" si="3"/>
+        <v>138163.77825278809</v>
       </c>
       <c r="P10" s="1">
         <v>0.04</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="7"/>
-        <v>9910948.3599999994</v>
+        <f t="shared" si="12"/>
+        <v>29661.920000000002</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="8"/>
-        <v>18465885.842667956</v>
+        <f t="shared" si="4"/>
+        <v>55265.511301115243</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
       </c>
       <c r="T10" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
       </c>
       <c r="W10" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X10" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y10" s="1" t="s">
@@ -1745,67 +1769,67 @@
         <v>0.37</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>205024.77</v>
       </c>
       <c r="I11" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1192813.9522490706</v>
       </c>
       <c r="J11" s="1">
         <v>0.46</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>254895.66</v>
       </c>
       <c r="L11" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1482957.8865799259</v>
       </c>
       <c r="M11" s="1">
         <v>0.11</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="5"/>
-        <v>27255107.989999998</v>
+        <f t="shared" si="11"/>
+        <v>60953.31</v>
       </c>
       <c r="O11" s="7">
-        <f t="shared" si="6"/>
-        <v>158567538.35415655</v>
+        <f t="shared" si="3"/>
+        <v>354620.36418215616</v>
       </c>
       <c r="P11" s="1">
         <v>0.05</v>
       </c>
       <c r="Q11" s="7">
-        <f t="shared" si="7"/>
-        <v>12388685.450000001</v>
+        <f t="shared" si="12"/>
+        <v>27706.050000000003</v>
       </c>
       <c r="R11" s="7">
-        <f t="shared" si="8"/>
-        <v>72076153.797343895</v>
+        <f t="shared" si="4"/>
+        <v>161191.07462825283</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
       </c>
       <c r="T11" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U11" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V11" s="1">
         <v>0.02</v>
       </c>
       <c r="W11" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>11082.42</v>
       </c>
       <c r="X11" s="7">
-        <f t="shared" si="12"/>
-        <v>28830461.518937554</v>
+        <f t="shared" si="6"/>
+        <v>64476.429851301124</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>77</v>
@@ -1837,67 +1861,67 @@
         <v>0.54</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8729717.2200000007</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>7212149.2247955399</v>
       </c>
       <c r="J12" s="1">
         <v>0.16</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2586582.88</v>
       </c>
       <c r="L12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2136933.1036431226</v>
       </c>
       <c r="M12" s="1">
         <v>0.26</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="5"/>
-        <v>64421164.340000004</v>
+        <f t="shared" si="11"/>
+        <v>4203197.18</v>
       </c>
       <c r="O12" s="7">
-        <f t="shared" si="6"/>
-        <v>53222233.750105031</v>
+        <f t="shared" si="3"/>
+        <v>3472516.293420074</v>
       </c>
       <c r="P12" s="1">
         <v>0.02</v>
       </c>
       <c r="Q12" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>323322.86</v>
       </c>
       <c r="R12" s="7">
-        <f t="shared" si="8"/>
-        <v>4094017.9807773093</v>
+        <f t="shared" si="4"/>
+        <v>267116.63795539032</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
       </c>
       <c r="T12" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U12" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V12" s="1">
         <v>0.01</v>
       </c>
       <c r="W12" s="7">
-        <f t="shared" si="11"/>
-        <v>2477737.09</v>
+        <f t="shared" si="14"/>
+        <v>161661.43</v>
       </c>
       <c r="X12" s="7">
-        <f t="shared" si="12"/>
-        <v>2047008.9903886546</v>
+        <f t="shared" si="6"/>
+        <v>133558.31897769516</v>
       </c>
       <c r="Y12" s="10" t="s">
         <v>76</v>
@@ -1929,67 +1953,67 @@
         <v>0.52</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>4009557.7600000002</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>3831742.1168773235</v>
       </c>
       <c r="J13" s="1">
         <v>0.31</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2390313.2799999998</v>
       </c>
       <c r="L13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2284307.8004460963</v>
       </c>
       <c r="M13" s="1">
         <v>0.1</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="5"/>
-        <v>24777370.900000002</v>
+        <f t="shared" si="11"/>
+        <v>771068.8</v>
       </c>
       <c r="O13" s="7">
-        <f t="shared" si="6"/>
-        <v>23678545.442133896</v>
+        <f t="shared" si="3"/>
+        <v>736873.4840148699</v>
       </c>
       <c r="P13" s="1">
         <v>0.05</v>
       </c>
       <c r="Q13" s="7">
-        <f t="shared" si="7"/>
-        <v>12388685.450000001</v>
+        <f t="shared" si="12"/>
+        <v>385534.4</v>
       </c>
       <c r="R13" s="7">
-        <f t="shared" si="8"/>
-        <v>11839272.721066948</v>
+        <f t="shared" si="4"/>
+        <v>368436.74200743495</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
       </c>
       <c r="T13" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U13" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V13" s="1">
         <v>0.02</v>
       </c>
       <c r="W13" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>154213.76000000001</v>
       </c>
       <c r="X13" s="7">
-        <f t="shared" si="12"/>
-        <v>4735709.0884267781</v>
+        <f t="shared" si="6"/>
+        <v>147374.69680297398</v>
       </c>
       <c r="Y13" s="10" t="s">
         <v>76</v>
@@ -2021,67 +2045,67 @@
         <v>0.19</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>212946.3</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>350014.90490706317</v>
       </c>
       <c r="J14" s="1">
         <v>0.02</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>22415.4</v>
       </c>
       <c r="L14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>36843.674200743495</v>
       </c>
       <c r="M14" s="1">
         <v>0.1</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="5"/>
-        <v>24777370.900000002</v>
+        <f t="shared" si="11"/>
+        <v>112077</v>
       </c>
       <c r="O14" s="7">
-        <f t="shared" si="6"/>
-        <v>40725991.103909932</v>
+        <f t="shared" si="3"/>
+        <v>184218.37100371748</v>
       </c>
       <c r="P14" s="1">
         <v>0.39</v>
       </c>
       <c r="Q14" s="7">
-        <f t="shared" si="7"/>
-        <v>96631746.510000005</v>
+        <f t="shared" si="12"/>
+        <v>437100.3</v>
       </c>
       <c r="R14" s="7">
-        <f t="shared" si="8"/>
-        <v>158831365.30524874</v>
+        <f t="shared" si="4"/>
+        <v>718451.64691449818</v>
       </c>
       <c r="S14" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="T14" s="7">
-        <f t="shared" si="9"/>
-        <v>34688319.260000005</v>
+        <f t="shared" si="13"/>
+        <v>156907.80000000002</v>
       </c>
       <c r="U14" s="7">
-        <f t="shared" si="10"/>
-        <v>57016387.545473911</v>
+        <f t="shared" si="5"/>
+        <v>257905.71940520449</v>
       </c>
       <c r="V14" s="1">
         <v>0.16</v>
       </c>
       <c r="W14" s="7">
-        <f t="shared" si="11"/>
-        <v>39643793.439999998</v>
+        <f t="shared" si="14"/>
+        <v>179323.2</v>
       </c>
       <c r="X14" s="7">
-        <f t="shared" si="12"/>
-        <v>65161585.766255885</v>
+        <f t="shared" si="6"/>
+        <v>294749.39360594796</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>77</v>
@@ -2113,67 +2137,67 @@
         <v>0.84</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1026558.12</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1547434.3164312267</v>
       </c>
       <c r="J15" s="1">
         <v>0.01</v>
       </c>
       <c r="K15" s="7">
+        <f t="shared" si="9"/>
+        <v>12220.93</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="10"/>
+        <v>18421.837100371748</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="11"/>
+        <v>158872.09</v>
+      </c>
+      <c r="O15" s="7">
         <f t="shared" si="3"/>
+        <v>239483.88230483269</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="Q15" s="7">
+        <f t="shared" si="12"/>
         <v>12220.93</v>
       </c>
-      <c r="L15" s="7">
+      <c r="R15" s="7">
         <f t="shared" si="4"/>
         <v>18421.837100371748</v>
       </c>
-      <c r="M15" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="N15" s="6">
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
         <f t="shared" si="5"/>
-        <v>32210582.170000002</v>
-      </c>
-      <c r="O15" s="7">
-        <f t="shared" si="6"/>
-        <v>48554250.588447742</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="Q15" s="7">
-        <f t="shared" si="7"/>
-        <v>2477737.09</v>
-      </c>
-      <c r="R15" s="7">
-        <f t="shared" si="8"/>
-        <v>3734942.3529575183</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V15" s="1">
         <v>0.01</v>
       </c>
       <c r="W15" s="7">
-        <f t="shared" si="11"/>
-        <v>2477737.09</v>
+        <f t="shared" si="14"/>
+        <v>12220.93</v>
       </c>
       <c r="X15" s="7">
-        <f t="shared" si="12"/>
-        <v>3734942.3529575183</v>
+        <f t="shared" si="6"/>
+        <v>18421.837100371748</v>
       </c>
       <c r="Y15" s="10" t="s">
         <v>76</v>
@@ -2205,67 +2229,67 @@
         <v>0.63</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>6237832.8600000003</v>
       </c>
       <c r="I16" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>5802878.6866171015</v>
       </c>
       <c r="J16" s="1">
         <v>0.13</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1287171.8600000001</v>
       </c>
       <c r="L16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1197419.4115241638</v>
       </c>
       <c r="M16" s="1">
         <v>0.16</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="5"/>
-        <v>39643793.439999998</v>
+        <f t="shared" si="11"/>
+        <v>1584211.52</v>
       </c>
       <c r="O16" s="7">
-        <f t="shared" si="6"/>
-        <v>36879494.717597619</v>
+        <f t="shared" si="3"/>
+        <v>1473746.96802974</v>
       </c>
       <c r="P16" s="1">
         <v>0.06</v>
       </c>
       <c r="Q16" s="7">
-        <f t="shared" si="7"/>
-        <v>14866422.539999999</v>
+        <f t="shared" si="12"/>
+        <v>594079.31999999995</v>
       </c>
       <c r="R16" s="7">
-        <f t="shared" si="8"/>
-        <v>13829810.519099107</v>
+        <f t="shared" si="4"/>
+        <v>552655.11301115248</v>
       </c>
       <c r="S16" s="1">
         <v>0</v>
       </c>
       <c r="T16" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U16" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V16" s="1">
         <v>0.01</v>
       </c>
       <c r="W16" s="7">
-        <f t="shared" si="11"/>
-        <v>2477737.09</v>
+        <f t="shared" si="14"/>
+        <v>99013.22</v>
       </c>
       <c r="X16" s="7">
-        <f t="shared" si="12"/>
-        <v>2304968.4198498512</v>
+        <f t="shared" si="6"/>
+        <v>92109.185501858752</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>77</v>
@@ -2297,67 +2321,67 @@
         <v>0.8</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>4032179.2</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>4052804.1620817841</v>
       </c>
       <c r="J17" s="1">
         <v>0.09</v>
       </c>
       <c r="K17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>453620.16</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>455940.46823420067</v>
       </c>
       <c r="M17" s="1">
         <v>0.08</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="5"/>
-        <v>19821896.719999999</v>
+        <f t="shared" si="11"/>
+        <v>403217.91999999998</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="6"/>
-        <v>19923287.51836507</v>
+        <f t="shared" si="3"/>
+        <v>405280.41620817839</v>
       </c>
       <c r="P17" s="1">
         <v>0.02</v>
       </c>
       <c r="Q17" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>100804.48</v>
       </c>
       <c r="R17" s="7">
-        <f t="shared" si="8"/>
-        <v>4980821.8795912676</v>
+        <f t="shared" si="4"/>
+        <v>101320.1040520446</v>
       </c>
       <c r="S17" s="1">
         <v>0</v>
       </c>
       <c r="T17" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U17" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V17" s="1">
         <v>0.01</v>
       </c>
       <c r="W17" s="7">
-        <f t="shared" si="11"/>
-        <v>2477737.09</v>
+        <f t="shared" si="14"/>
+        <v>50402.239999999998</v>
       </c>
       <c r="X17" s="7">
-        <f t="shared" si="12"/>
-        <v>2490410.9397956338</v>
+        <f t="shared" si="6"/>
+        <v>50660.052026022298</v>
       </c>
       <c r="Y17" s="10" t="s">
         <v>76</v>
@@ -2389,67 +2413,67 @@
         <v>0.85</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>2035837.55</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2348784.2302973978</v>
       </c>
       <c r="J18" s="1">
         <v>0.03</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>71853.09</v>
       </c>
       <c r="L18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>82898.266951672864</v>
       </c>
       <c r="M18" s="1">
         <v>0.08</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="5"/>
-        <v>19821896.719999999</v>
+        <f t="shared" si="11"/>
+        <v>191608.24</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="6"/>
-        <v>22868896.602540664</v>
+        <f t="shared" si="3"/>
+        <v>221062.04520446094</v>
       </c>
       <c r="P18" s="1">
         <v>0.02</v>
       </c>
       <c r="Q18" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>47902.06</v>
       </c>
       <c r="R18" s="7">
-        <f t="shared" si="8"/>
-        <v>5717224.1506351661</v>
+        <f t="shared" si="4"/>
+        <v>55265.511301115235</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
       </c>
       <c r="T18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U18" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V18" s="1">
         <v>0.01</v>
       </c>
       <c r="W18" s="7">
-        <f t="shared" si="11"/>
-        <v>2477737.09</v>
+        <f t="shared" si="14"/>
+        <v>23951.03</v>
       </c>
       <c r="X18" s="7">
-        <f t="shared" si="12"/>
-        <v>2858612.075317583</v>
+        <f t="shared" si="6"/>
+        <v>27632.755650557618</v>
       </c>
       <c r="Y18" s="10" t="s">
         <v>76</v>
@@ -2481,67 +2505,67 @@
         <v>0.75</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1644063</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2072456.6737918213</v>
       </c>
       <c r="J19" s="1">
         <v>0.05</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>109604.20000000001</v>
       </c>
       <c r="L19" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>138163.77825278812</v>
       </c>
       <c r="M19" s="1">
         <v>0.12</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="5"/>
-        <v>29732845.079999998</v>
+        <f t="shared" si="11"/>
+        <v>263050.08</v>
       </c>
       <c r="O19" s="7">
-        <f t="shared" si="6"/>
-        <v>37480335.739484631</v>
+        <f t="shared" si="3"/>
+        <v>331593.06780669146</v>
       </c>
       <c r="P19" s="1">
         <v>0.03</v>
       </c>
       <c r="Q19" s="7">
-        <f t="shared" si="7"/>
-        <v>7433211.2699999996</v>
+        <f t="shared" si="12"/>
+        <v>65762.52</v>
       </c>
       <c r="R19" s="7">
-        <f t="shared" si="8"/>
-        <v>9370083.9348711576</v>
+        <f t="shared" si="4"/>
+        <v>82898.266951672864</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
       </c>
       <c r="T19" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U19" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V19" s="1">
         <v>0.04</v>
       </c>
       <c r="W19" s="7">
-        <f t="shared" si="11"/>
-        <v>9910948.3599999994</v>
+        <f t="shared" si="14"/>
+        <v>87683.36</v>
       </c>
       <c r="X19" s="7">
-        <f t="shared" si="12"/>
-        <v>12493445.246494876</v>
+        <f t="shared" si="6"/>
+        <v>110531.02260223047</v>
       </c>
       <c r="Y19" s="10" t="s">
         <v>76</v>
@@ -2573,67 +2597,67 @@
         <v>0.85</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>2901411.25</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>3131712.3070631968</v>
       </c>
       <c r="J20" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>238939.75000000003</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>257905.71940520447</v>
       </c>
       <c r="M20" s="1">
         <v>0.03</v>
       </c>
       <c r="N20" s="6">
+        <f t="shared" si="11"/>
+        <v>102402.75</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="3"/>
+        <v>110531.02260223047</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
         <f t="shared" si="5"/>
-        <v>7433211.2699999996</v>
-      </c>
-      <c r="O20" s="7">
-        <f t="shared" si="6"/>
-        <v>8023226.3576078201</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V20" s="1">
         <v>0.02</v>
       </c>
       <c r="W20" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>68268.5</v>
       </c>
       <c r="X20" s="7">
-        <f t="shared" si="12"/>
-        <v>5348817.5717385467</v>
+        <f t="shared" si="6"/>
+        <v>73687.348401486975</v>
       </c>
       <c r="Y20" s="10" t="s">
         <v>76</v>
@@ -2665,67 +2689,67 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>2062428.38</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2136933.1036431226</v>
       </c>
       <c r="J21" s="1">
         <v>0.32</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1137891.52</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1178997.5744237921</v>
       </c>
       <c r="M21" s="1">
         <v>0.05</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="5"/>
-        <v>12388685.450000001</v>
+        <f t="shared" si="11"/>
+        <v>177795.55000000002</v>
       </c>
       <c r="O21" s="7">
-        <f t="shared" si="6"/>
-        <v>12836223.698942168</v>
+        <f t="shared" si="3"/>
+        <v>184218.3710037175</v>
       </c>
       <c r="P21" s="1">
         <v>0.02</v>
       </c>
       <c r="Q21" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>71118.22</v>
       </c>
       <c r="R21" s="7">
-        <f t="shared" si="8"/>
-        <v>5134489.4795768661</v>
+        <f t="shared" si="4"/>
+        <v>73687.348401487005</v>
       </c>
       <c r="S21" s="1">
         <v>0</v>
       </c>
       <c r="T21" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V21" s="1">
         <v>0.02</v>
       </c>
       <c r="W21" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>71118.22</v>
       </c>
       <c r="X21" s="7">
-        <f t="shared" si="12"/>
-        <v>5134489.4795768661</v>
+        <f t="shared" si="6"/>
+        <v>73687.348401487005</v>
       </c>
       <c r="Y21" s="10" t="s">
         <v>76</v>
@@ -2757,67 +2781,67 @@
         <v>0.91</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>976382.68</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1676387.1761338289</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M22" s="1">
         <v>0.02</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="5"/>
-        <v>4955474.18</v>
+        <f t="shared" si="11"/>
+        <v>21458.959999999999</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" si="6"/>
-        <v>8508235.0774742346</v>
+        <f t="shared" si="3"/>
+        <v>36843.674200743488</v>
       </c>
       <c r="P22" s="1">
         <v>0.02</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>21458.959999999999</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" si="8"/>
-        <v>8508235.0774742346</v>
+        <f t="shared" si="4"/>
+        <v>36843.674200743488</v>
       </c>
       <c r="S22" s="1">
         <v>0</v>
       </c>
       <c r="T22" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U22" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V22" s="1">
         <v>0.03</v>
       </c>
       <c r="W22" s="7">
-        <f t="shared" si="11"/>
-        <v>7433211.2699999996</v>
+        <f t="shared" si="14"/>
+        <v>32188.44</v>
       </c>
       <c r="X22" s="7">
-        <f t="shared" si="12"/>
-        <v>12762352.616211351</v>
+        <f t="shared" si="6"/>
+        <v>55265.511301115235</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>77</v>
@@ -2849,67 +2873,67 @@
         <v>0.5</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>2329087.5</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2302729.6375464685</v>
       </c>
       <c r="J23" s="1">
         <v>0.3</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1397452.5</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1381637.7825278812</v>
       </c>
       <c r="M23" s="1">
         <v>0.11</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="5"/>
-        <v>27255107.989999998</v>
+        <f t="shared" si="11"/>
+        <v>512399.25</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="6"/>
-        <v>26946666.856913943</v>
+        <f t="shared" si="3"/>
+        <v>506600.52026022307</v>
       </c>
       <c r="P23" s="1">
         <v>0.06</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="7"/>
-        <v>14866422.539999999</v>
+        <f t="shared" si="12"/>
+        <v>279490.5</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="8"/>
-        <v>14698181.92195306</v>
+        <f t="shared" si="4"/>
+        <v>276327.55650557624</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
       </c>
       <c r="T23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V23" s="1">
         <v>0.03</v>
       </c>
       <c r="W23" s="7">
-        <f t="shared" si="11"/>
-        <v>7433211.2699999996</v>
+        <f t="shared" si="14"/>
+        <v>139745.25</v>
       </c>
       <c r="X23" s="7">
-        <f t="shared" si="12"/>
-        <v>7349090.9609765299</v>
+        <f t="shared" si="6"/>
+        <v>138163.77825278812</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>77</v>
@@ -2941,67 +2965,67 @@
         <v>0.73</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>3947354.55</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>3698183.7978996281</v>
       </c>
       <c r="J24" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K24" s="7">
+        <f t="shared" si="9"/>
+        <v>378513.45</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="10"/>
+        <v>354620.36418215616</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="11"/>
+        <v>594806.85</v>
+      </c>
+      <c r="O24" s="7">
         <f t="shared" si="3"/>
+        <v>557260.5722862453</v>
+      </c>
+      <c r="P24" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q24" s="7">
+        <f t="shared" si="12"/>
         <v>378513.45</v>
       </c>
-      <c r="L24" s="7">
+      <c r="R24" s="7">
         <f t="shared" si="4"/>
         <v>354620.36418215616</v>
       </c>
-      <c r="M24" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="N24" s="6">
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="7">
         <f t="shared" si="5"/>
-        <v>27255107.989999998</v>
-      </c>
-      <c r="O24" s="7">
-        <f t="shared" si="6"/>
-        <v>25534670.752750777</v>
-      </c>
-      <c r="P24" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q24" s="7">
-        <f t="shared" si="7"/>
-        <v>17344159.630000003</v>
-      </c>
-      <c r="R24" s="7">
-        <f t="shared" si="8"/>
-        <v>16249335.933568679</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V24" s="1">
         <v>0.01</v>
       </c>
       <c r="W24" s="7">
-        <f t="shared" si="11"/>
-        <v>2477737.09</v>
+        <f t="shared" si="14"/>
+        <v>54073.35</v>
       </c>
       <c r="X24" s="7">
-        <f t="shared" si="12"/>
-        <v>2321333.7047955249</v>
+        <f t="shared" si="6"/>
+        <v>50660.052026022306</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>77</v>
@@ -3033,67 +3057,67 @@
         <v>0.76</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5863606.7199999997</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>5600238.4785130098</v>
       </c>
       <c r="J25" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1080138.08</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1031622.8776208177</v>
       </c>
       <c r="M25" s="1">
         <v>0.05</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="5"/>
-        <v>12388685.450000001</v>
+        <f t="shared" si="11"/>
+        <v>385763.60000000003</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="6"/>
-        <v>11832238.461464256</v>
+        <f t="shared" si="3"/>
+        <v>368436.74200743495</v>
       </c>
       <c r="P25" s="1">
         <v>0.03</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="7"/>
-        <v>7433211.2699999996</v>
+        <f t="shared" si="12"/>
+        <v>231458.16</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="8"/>
-        <v>7099343.0768785533</v>
+        <f t="shared" si="4"/>
+        <v>221062.04520446094</v>
       </c>
       <c r="S25" s="1">
         <v>0</v>
       </c>
       <c r="T25" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U25" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V25" s="1">
         <v>0.02</v>
       </c>
       <c r="W25" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>154305.44</v>
       </c>
       <c r="X25" s="7">
-        <f t="shared" si="12"/>
-        <v>4732895.3845857019</v>
+        <f t="shared" si="6"/>
+        <v>147374.69680297395</v>
       </c>
       <c r="Y25" s="10" t="s">
         <v>76</v>
@@ -3125,67 +3149,67 @@
         <v>0.82</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>3448269.7399999998</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>3776476.6055762079</v>
       </c>
       <c r="J26" s="1">
         <v>0.06</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>252312.41999999998</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>276327.55650557618</v>
       </c>
       <c r="M26" s="1">
         <v>0.05</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="5"/>
-        <v>12388685.450000001</v>
+        <f t="shared" si="11"/>
+        <v>210260.35</v>
       </c>
       <c r="O26" s="7">
-        <f t="shared" si="6"/>
-        <v>13567842.513320133</v>
+        <f t="shared" si="3"/>
+        <v>230272.96375464686</v>
       </c>
       <c r="P26" s="1">
         <v>0.03</v>
       </c>
       <c r="Q26" s="7">
-        <f t="shared" si="7"/>
-        <v>7433211.2699999996</v>
+        <f t="shared" si="12"/>
+        <v>126156.20999999999</v>
       </c>
       <c r="R26" s="7">
-        <f t="shared" si="8"/>
-        <v>8140705.5079920786</v>
+        <f t="shared" si="4"/>
+        <v>138163.77825278809</v>
       </c>
       <c r="S26" s="1">
         <v>0.02</v>
       </c>
       <c r="T26" s="7">
-        <f t="shared" si="9"/>
-        <v>4955474.18</v>
+        <f t="shared" si="13"/>
+        <v>84104.14</v>
       </c>
       <c r="U26" s="7">
-        <f t="shared" si="10"/>
-        <v>5427137.0053280527</v>
+        <f t="shared" si="5"/>
+        <v>92109.185501858738</v>
       </c>
       <c r="V26" s="1">
         <v>0.01</v>
       </c>
       <c r="W26" s="7">
-        <f t="shared" si="11"/>
-        <v>2477737.09</v>
+        <f t="shared" si="14"/>
+        <v>42052.07</v>
       </c>
       <c r="X26" s="7">
-        <f t="shared" si="12"/>
-        <v>2713568.5026640263</v>
+        <f t="shared" si="6"/>
+        <v>46054.592750929369</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>77</v>
@@ -3217,67 +3241,67 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1268671.6000000001</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1547434.3164312269</v>
       </c>
       <c r="J27" s="1">
         <v>0.38</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>860884.3</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1050044.7147211898</v>
       </c>
       <c r="M27" s="1">
         <v>0.03</v>
       </c>
       <c r="N27" s="6">
+        <f t="shared" si="11"/>
+        <v>67964.55</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" si="3"/>
+        <v>82898.266951672864</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="7">
         <f t="shared" si="5"/>
-        <v>7433211.2699999996</v>
-      </c>
-      <c r="O27" s="7">
-        <f t="shared" si="6"/>
-        <v>9066496.1684973016</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V27" s="1">
         <v>0.01</v>
       </c>
       <c r="W27" s="7">
-        <f t="shared" si="11"/>
-        <v>2477737.09</v>
+        <f t="shared" si="14"/>
+        <v>22654.850000000002</v>
       </c>
       <c r="X27" s="7">
-        <f t="shared" si="12"/>
-        <v>3022165.3894991004</v>
+        <f t="shared" si="6"/>
+        <v>27632.755650557625</v>
       </c>
       <c r="Y27" s="10" t="s">
         <v>76</v>
@@ -3309,67 +3333,67 @@
         <v>0.8</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>3753756.8000000003</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>3684367.4200743497</v>
       </c>
       <c r="J28" s="1">
         <v>0.11</v>
       </c>
       <c r="K28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>516141.56</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>506600.52026022307</v>
       </c>
       <c r="M28" s="1">
         <v>0.04</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="5"/>
-        <v>9910948.3599999994</v>
+        <f t="shared" si="11"/>
+        <v>187687.84</v>
       </c>
       <c r="O28" s="7">
-        <f t="shared" si="6"/>
-        <v>9727741.3495789878</v>
+        <f t="shared" si="3"/>
+        <v>184218.37100371748</v>
       </c>
       <c r="P28" s="1">
         <v>0.02</v>
       </c>
       <c r="Q28" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>93843.92</v>
       </c>
       <c r="R28" s="7">
-        <f t="shared" si="8"/>
-        <v>4863870.6747894939</v>
+        <f t="shared" si="4"/>
+        <v>92109.185501858738</v>
       </c>
       <c r="S28" s="1">
         <v>0</v>
       </c>
       <c r="T28" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U28" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V28" s="1">
         <v>0.02</v>
       </c>
       <c r="W28" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>93843.92</v>
       </c>
       <c r="X28" s="7">
-        <f t="shared" si="12"/>
-        <v>4863870.6747894939</v>
+        <f t="shared" si="6"/>
+        <v>92109.185501858738</v>
       </c>
       <c r="Y28" s="10" t="s">
         <v>76</v>
@@ -3401,66 +3425,66 @@
         <v>0.9</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>725876.1</v>
       </c>
       <c r="I29" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1243474.0042750929</v>
       </c>
       <c r="J29" s="1">
         <v>0.01</v>
       </c>
       <c r="K29" s="7">
+        <f t="shared" si="9"/>
+        <v>8065.29</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="10"/>
+        <v>13816.377825278809</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="11"/>
+        <v>24195.87</v>
+      </c>
+      <c r="O29" s="7">
         <f t="shared" si="3"/>
+        <v>41449.133475836425</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="Q29" s="7">
+        <f t="shared" si="12"/>
         <v>8065.29</v>
       </c>
-      <c r="L29" s="7">
+      <c r="R29" s="7">
         <f t="shared" si="4"/>
         <v>13816.377825278809</v>
       </c>
-      <c r="M29" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="N29" s="6">
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="7">
         <f t="shared" si="5"/>
-        <v>7433211.2699999996</v>
-      </c>
-      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="7">
         <f t="shared" si="6"/>
-        <v>12733584.950006822</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="Q29" s="7">
-        <f t="shared" si="7"/>
-        <v>2477737.09</v>
-      </c>
-      <c r="R29" s="7">
-        <f t="shared" si="8"/>
-        <v>4244528.3166689407</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0</v>
-      </c>
-      <c r="T29" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="7">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y29" s="10" t="s">
@@ -3493,66 +3517,66 @@
         <v>0.79</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1126423.8700000001</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1819156.4136617102</v>
       </c>
       <c r="J30" s="1">
         <v>0.05</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>71292.650000000009</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>115136.48187732343</v>
       </c>
       <c r="M30" s="1">
         <v>0.11</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="5"/>
-        <v>27255107.989999998</v>
+        <f t="shared" si="11"/>
+        <v>156843.82999999999</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" si="6"/>
-        <v>44016560.57328669</v>
+        <f t="shared" si="3"/>
+        <v>253300.26013011151</v>
       </c>
       <c r="P30" s="1">
         <v>0.02</v>
       </c>
       <c r="Q30" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>28517.06</v>
       </c>
       <c r="R30" s="7">
-        <f t="shared" si="8"/>
-        <v>8003011.013324853</v>
+        <f t="shared" si="4"/>
+        <v>46054.592750929369</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
       </c>
       <c r="T30" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U30" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V30" s="1">
         <v>0</v>
       </c>
       <c r="W30" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X30" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y30" s="10" t="s">
@@ -3585,67 +3609,67 @@
         <v>0.5</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1110840.5</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1381637.782527881</v>
       </c>
       <c r="J31" s="1">
         <v>0.09</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>199951.28999999998</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>248694.80085501855</v>
       </c>
       <c r="M31" s="1">
         <v>0.28000000000000003</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="5"/>
-        <v>69376638.520000011</v>
+        <f t="shared" si="11"/>
+        <v>622070.68000000005</v>
       </c>
       <c r="O31" s="7">
-        <f t="shared" si="6"/>
-        <v>86289062.204710022</v>
+        <f t="shared" si="3"/>
+        <v>773717.15821561345</v>
       </c>
       <c r="P31" s="1">
         <v>0.08</v>
       </c>
       <c r="Q31" s="7">
-        <f t="shared" si="7"/>
-        <v>19821896.719999999</v>
+        <f t="shared" si="12"/>
+        <v>177734.48</v>
       </c>
       <c r="R31" s="7">
-        <f t="shared" si="8"/>
-        <v>24654017.772774287</v>
+        <f t="shared" si="4"/>
+        <v>221062.04520446097</v>
       </c>
       <c r="S31" s="1">
         <v>0</v>
       </c>
       <c r="T31" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U31" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V31" s="1">
         <v>0.03</v>
       </c>
       <c r="W31" s="7">
-        <f t="shared" si="11"/>
-        <v>7433211.2699999996</v>
+        <f t="shared" si="14"/>
+        <v>66650.429999999993</v>
       </c>
       <c r="X31" s="7">
-        <f t="shared" si="12"/>
-        <v>9245256.6647903584</v>
+        <f t="shared" si="6"/>
+        <v>82898.266951672849</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>77</v>
@@ -3677,67 +3701,67 @@
         <v>0.91</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>970615.1</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1676387.1761338287</v>
       </c>
       <c r="J32" s="1">
         <v>0.01</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>10666.1</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>18421.837100371748</v>
       </c>
       <c r="M32" s="1">
         <v>0.03</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="5"/>
-        <v>7433211.2699999996</v>
+        <f t="shared" si="11"/>
+        <v>31998.3</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" si="6"/>
-        <v>12838188.94896798</v>
+        <f t="shared" si="3"/>
+        <v>55265.511301115235</v>
       </c>
       <c r="P32" s="1">
         <v>0.03</v>
       </c>
       <c r="Q32" s="7">
-        <f t="shared" si="7"/>
-        <v>7433211.2699999996</v>
+        <f t="shared" si="12"/>
+        <v>31998.3</v>
       </c>
       <c r="R32" s="7">
-        <f t="shared" si="8"/>
-        <v>12838188.94896798</v>
+        <f t="shared" si="4"/>
+        <v>55265.511301115235</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
       </c>
       <c r="T32" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U32" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V32" s="1">
         <v>0.02</v>
       </c>
       <c r="W32" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>21332.2</v>
       </c>
       <c r="X32" s="7">
-        <f t="shared" si="12"/>
-        <v>8558792.6326453201</v>
+        <f t="shared" si="6"/>
+        <v>36843.674200743495</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>77</v>
@@ -3769,67 +3793,67 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>3897147.5200000005</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>3610680.0716728624</v>
       </c>
       <c r="J33" s="1">
         <v>0.13</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>904694.96000000008</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>838193.58806691447</v>
       </c>
       <c r="M33" s="1">
         <v>0.18</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="5"/>
-        <v>44599267.619999997</v>
+        <f t="shared" si="11"/>
+        <v>1252654.56</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" si="6"/>
-        <v>41320911.251196042</v>
+        <f t="shared" si="3"/>
+        <v>1160575.7373234201</v>
       </c>
       <c r="P33" s="1">
         <v>0.11</v>
       </c>
       <c r="Q33" s="7">
-        <f t="shared" si="7"/>
-        <v>27255107.989999998</v>
+        <f t="shared" si="12"/>
+        <v>765511.12</v>
       </c>
       <c r="R33" s="7">
-        <f t="shared" si="8"/>
-        <v>25251667.986842025</v>
+        <f t="shared" si="4"/>
+        <v>709240.72836431221</v>
       </c>
       <c r="S33" s="1">
         <v>0</v>
       </c>
       <c r="T33" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U33" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V33" s="1">
         <v>0.01</v>
       </c>
       <c r="W33" s="7">
-        <f t="shared" si="11"/>
-        <v>2477737.09</v>
+        <f t="shared" si="14"/>
+        <v>69591.92</v>
       </c>
       <c r="X33" s="7">
-        <f t="shared" si="12"/>
-        <v>2295606.1806220021</v>
+        <f t="shared" si="6"/>
+        <v>64476.429851301109</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>77</v>
@@ -3861,66 +3885,66 @@
         <v>0.38</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>603516.38</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>875037.26226765814</v>
       </c>
       <c r="J34" s="1">
         <v>0.02</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>31764.02</v>
       </c>
       <c r="L34" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>46054.592750929376</v>
       </c>
       <c r="M34" s="1">
         <v>0.44</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="5"/>
-        <v>109020431.95999999</v>
+        <f t="shared" si="11"/>
+        <v>698808.44000000006</v>
       </c>
       <c r="O34" s="7">
-        <f t="shared" si="6"/>
-        <v>158068518.8917588</v>
+        <f t="shared" si="3"/>
+        <v>1013201.0405204463</v>
       </c>
       <c r="P34" s="1">
         <v>0.01</v>
       </c>
       <c r="Q34" s="7">
-        <f t="shared" si="7"/>
-        <v>2477737.09</v>
+        <f t="shared" si="12"/>
+        <v>15882.01</v>
       </c>
       <c r="R34" s="7">
-        <f t="shared" si="8"/>
-        <v>3592466.3384490637</v>
+        <f t="shared" si="4"/>
+        <v>23027.296375464688</v>
       </c>
       <c r="S34" s="1">
         <v>0</v>
       </c>
       <c r="T34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U34" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V34" s="1">
         <v>0</v>
       </c>
       <c r="W34" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X34" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y34" s="1" t="s">
@@ -3953,67 +3977,67 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>9039284.9199999999</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>7746382.5007063197</v>
       </c>
       <c r="J35" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2181896.3600000003</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1869816.4656877327</v>
       </c>
       <c r="M35" s="1">
         <v>0.18</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="5"/>
-        <v>44599267.619999997</v>
+        <f t="shared" si="11"/>
+        <v>2805295.32</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" si="6"/>
-        <v>38220167.77803769</v>
+        <f t="shared" si="3"/>
+        <v>2404049.741598513</v>
       </c>
       <c r="P35" s="1">
         <v>0.08</v>
       </c>
       <c r="Q35" s="7">
-        <f t="shared" si="7"/>
-        <v>19821896.719999999</v>
+        <f t="shared" si="12"/>
+        <v>1246797.92</v>
       </c>
       <c r="R35" s="7">
-        <f t="shared" si="8"/>
-        <v>16986741.234683417</v>
+        <f t="shared" si="4"/>
+        <v>1068466.5518215613</v>
       </c>
       <c r="S35" s="1">
         <v>0</v>
       </c>
       <c r="T35" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U35" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V35" s="1">
         <v>0.01</v>
       </c>
       <c r="W35" s="7">
-        <f t="shared" si="11"/>
-        <v>2477737.09</v>
+        <f t="shared" si="14"/>
+        <v>155849.74</v>
       </c>
       <c r="X35" s="7">
-        <f t="shared" si="12"/>
-        <v>2123342.6543354271</v>
+        <f t="shared" si="6"/>
+        <v>133558.31897769516</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>77</v>
@@ -4045,67 +4069,67 @@
         <v>0.62</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>4806385.08</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>4283077.125836431</v>
       </c>
       <c r="J36" s="1">
         <v>0.21</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1627969.14</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1450719.6716542749</v>
       </c>
       <c r="M36" s="1">
         <v>0.11</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="5"/>
-        <v>27255107.989999998</v>
+        <f t="shared" si="11"/>
+        <v>852745.74</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" si="6"/>
-        <v>24287635.645325936</v>
+        <f t="shared" si="3"/>
+        <v>759900.78039033455</v>
       </c>
       <c r="P36" s="1">
         <v>0.02</v>
       </c>
       <c r="Q36" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>155044.68</v>
       </c>
       <c r="R36" s="7">
-        <f t="shared" si="8"/>
-        <v>4415933.7536956249</v>
+        <f t="shared" si="4"/>
+        <v>138163.77825278809</v>
       </c>
       <c r="S36" s="1">
         <v>0</v>
       </c>
       <c r="T36" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U36" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V36" s="1">
         <v>0.02</v>
       </c>
       <c r="W36" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>155044.68</v>
       </c>
       <c r="X36" s="7">
-        <f t="shared" si="12"/>
-        <v>4415933.7536956249</v>
+        <f t="shared" si="6"/>
+        <v>138163.77825278809</v>
       </c>
       <c r="Y36" s="10" t="s">
         <v>76</v>
@@ -4137,67 +4161,67 @@
         <v>0.85</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>495550.85</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1174392.1151486987</v>
       </c>
       <c r="J37" s="1">
         <v>0.03</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>17490.03</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>41449.133475836417</v>
       </c>
       <c r="M37" s="1">
         <v>0.03</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="5"/>
-        <v>7433211.2699999996</v>
+        <f t="shared" si="11"/>
+        <v>17490.03</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="6"/>
-        <v>17615759.726216681</v>
+        <f t="shared" si="3"/>
+        <v>41449.133475836417</v>
       </c>
       <c r="P37" s="1">
         <v>0.02</v>
       </c>
       <c r="Q37" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>11660.02</v>
       </c>
       <c r="R37" s="7">
-        <f t="shared" si="8"/>
-        <v>11743839.817477787</v>
+        <f t="shared" si="4"/>
+        <v>27632.755650557614</v>
       </c>
       <c r="S37" s="1">
         <v>0.05</v>
       </c>
       <c r="T37" s="7">
-        <f t="shared" si="9"/>
-        <v>12388685.450000001</v>
+        <f t="shared" si="13"/>
+        <v>29150.050000000003</v>
       </c>
       <c r="U37" s="7">
-        <f t="shared" si="10"/>
-        <v>29359599.543694474</v>
+        <f t="shared" si="5"/>
+        <v>69081.889126394046</v>
       </c>
       <c r="V37" s="1">
         <v>0.03</v>
       </c>
       <c r="W37" s="7">
-        <f t="shared" si="11"/>
-        <v>7433211.2699999996</v>
+        <f t="shared" si="14"/>
+        <v>17490.03</v>
       </c>
       <c r="X37" s="7">
-        <f t="shared" si="12"/>
-        <v>17615759.726216681</v>
+        <f t="shared" si="6"/>
+        <v>41449.133475836417</v>
       </c>
       <c r="Y37" s="10" t="s">
         <v>76</v>
@@ -4229,67 +4253,67 @@
         <v>0.79</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7098107.3400000008</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>6548963.0891821571</v>
       </c>
       <c r="J38" s="1">
         <v>0.12</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1078193.52</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>994779.20342007431</v>
       </c>
       <c r="M38" s="1">
         <v>0.04</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="5"/>
-        <v>9910948.3599999994</v>
+        <f t="shared" si="11"/>
+        <v>359397.84</v>
       </c>
       <c r="O38" s="7">
-        <f t="shared" si="6"/>
-        <v>9144188.990023138</v>
+        <f t="shared" si="3"/>
+        <v>331593.06780669146</v>
       </c>
       <c r="P38" s="1">
         <v>0.02</v>
       </c>
       <c r="Q38" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>179698.92</v>
       </c>
       <c r="R38" s="7">
-        <f t="shared" si="8"/>
-        <v>4572094.495011569</v>
+        <f t="shared" si="4"/>
+        <v>165796.53390334573</v>
       </c>
       <c r="S38" s="1">
         <v>0</v>
       </c>
       <c r="T38" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V38" s="1">
         <v>0.03</v>
       </c>
       <c r="W38" s="7">
-        <f t="shared" si="11"/>
-        <v>7433211.2699999996</v>
+        <f t="shared" si="14"/>
+        <v>269548.38</v>
       </c>
       <c r="X38" s="7">
-        <f t="shared" si="12"/>
-        <v>6858141.742517353</v>
+        <f t="shared" si="6"/>
+        <v>248694.80085501858</v>
       </c>
       <c r="Y38" s="10" t="s">
         <v>76</v>
@@ -4321,67 +4345,67 @@
         <v>0.65</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1917511.05</v>
       </c>
       <c r="I39" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2095483.9701672865</v>
       </c>
       <c r="J39" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>206501.19000000003</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>225667.50447955396</v>
       </c>
       <c r="M39" s="1">
         <v>0.12</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="5"/>
-        <v>29732845.079999998</v>
+        <f t="shared" si="11"/>
+        <v>354002.04</v>
       </c>
       <c r="O39" s="7">
-        <f t="shared" si="6"/>
-        <v>32492485.637883164</v>
+        <f t="shared" si="3"/>
+        <v>386858.57910780673</v>
       </c>
       <c r="P39" s="1">
         <v>0.02</v>
       </c>
       <c r="Q39" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>59000.340000000004</v>
       </c>
       <c r="R39" s="7">
-        <f t="shared" si="8"/>
-        <v>5415414.272980528</v>
+        <f t="shared" si="4"/>
+        <v>64476.429851301131</v>
       </c>
       <c r="S39" s="1">
         <v>0.09</v>
       </c>
       <c r="T39" s="7">
-        <f t="shared" si="9"/>
-        <v>22299633.809999999</v>
+        <f t="shared" si="13"/>
+        <v>265501.52999999997</v>
       </c>
       <c r="U39" s="7">
-        <f t="shared" si="10"/>
-        <v>24369364.228412375</v>
+        <f t="shared" si="5"/>
+        <v>290143.93433085503</v>
       </c>
       <c r="V39" s="1">
         <v>0.05</v>
       </c>
       <c r="W39" s="7">
-        <f t="shared" si="11"/>
-        <v>12388685.450000001</v>
+        <f t="shared" si="14"/>
+        <v>147500.85</v>
       </c>
       <c r="X39" s="7">
-        <f t="shared" si="12"/>
-        <v>13538535.682451321</v>
+        <f t="shared" si="6"/>
+        <v>161191.07462825283</v>
       </c>
       <c r="Y39" s="10" t="s">
         <v>76</v>
@@ -4413,67 +4437,67 @@
         <v>0.74</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>2342929.54</v>
       </c>
       <c r="I40" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2385627.9044981413</v>
       </c>
       <c r="J40" s="1">
         <v>0.02</v>
       </c>
       <c r="K40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>63322.42</v>
       </c>
       <c r="L40" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>64476.429851301109</v>
       </c>
       <c r="M40" s="1">
         <v>0.15</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" si="5"/>
-        <v>37166056.350000001</v>
+        <f t="shared" si="11"/>
+        <v>474918.14999999997</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" si="6"/>
-        <v>37843383.514089942</v>
+        <f t="shared" si="3"/>
+        <v>483573.22388475831</v>
       </c>
       <c r="P40" s="1">
         <v>0.04</v>
       </c>
       <c r="Q40" s="7">
-        <f t="shared" si="7"/>
-        <v>9910948.3599999994</v>
+        <f t="shared" si="12"/>
+        <v>126644.84</v>
       </c>
       <c r="R40" s="7">
-        <f t="shared" si="8"/>
-        <v>10091568.93709065</v>
+        <f t="shared" si="4"/>
+        <v>128952.85970260222</v>
       </c>
       <c r="S40" s="1">
         <v>0</v>
       </c>
       <c r="T40" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U40" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V40" s="1">
         <v>0.04</v>
       </c>
       <c r="W40" s="7">
-        <f t="shared" si="11"/>
-        <v>9910948.3599999994</v>
+        <f t="shared" si="14"/>
+        <v>126644.84</v>
       </c>
       <c r="X40" s="7">
-        <f t="shared" si="12"/>
-        <v>10091568.93709065</v>
+        <f t="shared" si="6"/>
+        <v>128952.85970260222</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>77</v>
@@ -4505,67 +4529,67 @@
         <v>0.76</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7685294.04</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>7000298.0981412642</v>
       </c>
       <c r="J41" s="1">
         <v>0.1</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1011222.9</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>921091.85501858743</v>
       </c>
       <c r="M41" s="1">
         <v>0.08</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="5"/>
-        <v>19821896.719999999</v>
+        <f t="shared" si="11"/>
+        <v>808978.32000000007</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" si="6"/>
-        <v>18055156.404994044</v>
+        <f t="shared" si="3"/>
+        <v>736873.48401487002</v>
       </c>
       <c r="P41" s="1">
         <v>0.04</v>
       </c>
       <c r="Q41" s="7">
-        <f t="shared" si="7"/>
-        <v>9910948.3599999994</v>
+        <f t="shared" si="12"/>
+        <v>404489.16000000003</v>
       </c>
       <c r="R41" s="7">
-        <f t="shared" si="8"/>
-        <v>9027578.2024970222</v>
+        <f t="shared" si="4"/>
+        <v>368436.74200743501</v>
       </c>
       <c r="S41" s="1">
         <v>0</v>
       </c>
       <c r="T41" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U41" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V41" s="1">
         <v>0.02</v>
       </c>
       <c r="W41" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>202244.58000000002</v>
       </c>
       <c r="X41" s="7">
-        <f t="shared" si="12"/>
-        <v>4513789.1012485111</v>
+        <f t="shared" si="6"/>
+        <v>184218.3710037175</v>
       </c>
       <c r="Y41" s="10" t="s">
         <v>76</v>
@@ -4597,66 +4621,66 @@
         <v>0.72</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>608582.88</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1326372.2712267656</v>
       </c>
       <c r="J42" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>59167.780000000006</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>128952.85970260223</v>
       </c>
       <c r="M42" s="1">
         <v>0.15</v>
       </c>
       <c r="N42" s="6">
-        <f t="shared" si="5"/>
-        <v>37166056.350000001</v>
+        <f t="shared" si="11"/>
+        <v>126788.09999999999</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="6"/>
-        <v>81001336.372609526</v>
+        <f t="shared" si="3"/>
+        <v>276327.55650557618</v>
       </c>
       <c r="P42" s="1">
         <v>0.04</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" si="7"/>
-        <v>9910948.3599999994</v>
+        <f t="shared" si="12"/>
+        <v>33810.160000000003</v>
       </c>
       <c r="R42" s="7">
-        <f t="shared" si="8"/>
-        <v>21600356.366029203</v>
+        <f t="shared" si="4"/>
+        <v>73687.34840148699</v>
       </c>
       <c r="S42" s="1">
         <v>0</v>
       </c>
       <c r="T42" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V42" s="1">
         <v>0</v>
       </c>
       <c r="W42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X42" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y42" s="1" t="s">
@@ -4689,67 +4713,67 @@
         <v>0.64</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>2434917.12</v>
       </c>
       <c r="I43" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2652744.5424535316</v>
       </c>
       <c r="J43" s="1">
         <v>0.27</v>
       </c>
       <c r="K43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1027230.66</v>
       </c>
       <c r="L43" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1119126.6038475835</v>
       </c>
       <c r="M43" s="1">
         <v>0.05</v>
       </c>
       <c r="N43" s="6">
-        <f t="shared" si="5"/>
-        <v>12388685.450000001</v>
+        <f t="shared" si="11"/>
+        <v>190227.90000000002</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" si="6"/>
-        <v>13496975.91171439</v>
+        <f t="shared" si="3"/>
+        <v>207245.66737918218</v>
       </c>
       <c r="P43" s="1">
         <v>0.02</v>
       </c>
       <c r="Q43" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>76091.16</v>
       </c>
       <c r="R43" s="7">
-        <f t="shared" si="8"/>
-        <v>5398790.3646857552</v>
+        <f t="shared" si="4"/>
+        <v>82898.266951672864</v>
       </c>
       <c r="S43" s="1">
         <v>0</v>
       </c>
       <c r="T43" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U43" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V43" s="1">
         <v>0.01</v>
       </c>
       <c r="W43" s="7">
-        <f t="shared" si="11"/>
-        <v>2477737.09</v>
+        <f t="shared" si="14"/>
+        <v>38045.58</v>
       </c>
       <c r="X43" s="7">
-        <f t="shared" si="12"/>
-        <v>2699395.1823428776</v>
+        <f t="shared" si="6"/>
+        <v>41449.133475836432</v>
       </c>
       <c r="Y43" s="10" t="s">
         <v>76</v>
@@ -4781,67 +4805,67 @@
         <v>0.83</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>537130.35</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1146759.3594981411</v>
       </c>
       <c r="J44" s="1">
         <v>0.02</v>
       </c>
       <c r="K44" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>12942.9</v>
       </c>
       <c r="L44" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>27632.755650557618</v>
       </c>
       <c r="M44" s="1">
         <v>0.04</v>
       </c>
       <c r="N44" s="6">
+        <f t="shared" si="11"/>
+        <v>25885.8</v>
+      </c>
+      <c r="O44" s="7">
+        <f t="shared" si="3"/>
+        <v>55265.511301115235</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="7">
         <f t="shared" si="5"/>
-        <v>9910948.3599999994</v>
-      </c>
-      <c r="O44" s="7">
-        <f t="shared" si="6"/>
-        <v>21159617.573895708</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>0</v>
-      </c>
-      <c r="T44" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V44" s="1">
         <v>0.02</v>
       </c>
       <c r="W44" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>12942.9</v>
       </c>
       <c r="X44" s="7">
-        <f t="shared" si="12"/>
-        <v>10579808.786947854</v>
+        <f t="shared" si="6"/>
+        <v>27632.755650557618</v>
       </c>
       <c r="Y44" s="10" t="s">
         <v>76</v>
@@ -4873,67 +4897,67 @@
         <v>0.73</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>3724962.2399999998</v>
       </c>
       <c r="I45" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>3698183.7978996276</v>
       </c>
       <c r="J45" s="1">
         <v>0.17</v>
       </c>
       <c r="K45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>867456.96000000008</v>
       </c>
       <c r="L45" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>861220.88444237923</v>
       </c>
       <c r="M45" s="1">
         <v>0.06</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" si="5"/>
-        <v>14866422.539999999</v>
+        <f t="shared" si="11"/>
+        <v>306161.27999999997</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" si="6"/>
-        <v>14759549.071337119</v>
+        <f t="shared" si="3"/>
+        <v>303960.31215613376</v>
       </c>
       <c r="P45" s="1">
         <v>0.02</v>
       </c>
       <c r="Q45" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>102053.76000000001</v>
       </c>
       <c r="R45" s="7">
-        <f t="shared" si="8"/>
-        <v>4919849.6904457062</v>
+        <f t="shared" si="4"/>
+        <v>101320.10405204461</v>
       </c>
       <c r="S45" s="1">
         <v>0</v>
       </c>
       <c r="T45" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U45" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V45" s="1">
         <v>0.02</v>
       </c>
       <c r="W45" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>102053.76000000001</v>
       </c>
       <c r="X45" s="7">
-        <f t="shared" si="12"/>
-        <v>4919849.6904457062</v>
+        <f t="shared" si="6"/>
+        <v>101320.10405204461</v>
       </c>
       <c r="Y45" s="10" t="s">
         <v>76</v>
@@ -4965,67 +4989,67 @@
         <v>0.44</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8913230.9199999999</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>7700327.9079553913</v>
       </c>
       <c r="J46" s="1">
         <v>0.12</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>2430881.1599999997</v>
       </c>
       <c r="L46" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2100089.4294423792</v>
       </c>
       <c r="M46" s="1">
         <v>0.37</v>
       </c>
       <c r="N46" s="6">
-        <f t="shared" si="5"/>
-        <v>91676272.329999998</v>
+        <f t="shared" si="11"/>
+        <v>7495216.9100000001</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" si="6"/>
-        <v>79201062.404430285</v>
+        <f t="shared" si="3"/>
+        <v>6475275.7407806702</v>
       </c>
       <c r="P46" s="1">
         <v>0.05</v>
       </c>
       <c r="Q46" s="7">
-        <f t="shared" si="7"/>
-        <v>12388685.450000001</v>
+        <f t="shared" si="12"/>
+        <v>1012867.15</v>
       </c>
       <c r="R46" s="7">
-        <f t="shared" si="8"/>
-        <v>10702846.270868959</v>
+        <f t="shared" si="4"/>
+        <v>875037.26226765814</v>
       </c>
       <c r="S46" s="1">
         <v>0</v>
       </c>
       <c r="T46" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U46" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V46" s="1">
         <v>0.01</v>
       </c>
       <c r="W46" s="7">
-        <f t="shared" si="11"/>
-        <v>2477737.09</v>
+        <f t="shared" si="14"/>
+        <v>202573.43</v>
       </c>
       <c r="X46" s="7">
-        <f t="shared" si="12"/>
-        <v>2140569.2541737915</v>
+        <f t="shared" si="6"/>
+        <v>175007.45245353162</v>
       </c>
       <c r="Y46" s="10" t="s">
         <v>76</v>
@@ -5057,66 +5081,66 @@
         <v>0.81</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1687572.6300000001</v>
       </c>
       <c r="I47" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2238253.2076951675</v>
       </c>
       <c r="J47" s="1">
         <v>0.01</v>
       </c>
       <c r="K47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>20834.23</v>
       </c>
       <c r="L47" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>27632.755650557618</v>
       </c>
       <c r="M47" s="1">
         <v>0.13</v>
       </c>
       <c r="N47" s="6">
-        <f t="shared" si="5"/>
-        <v>32210582.170000002</v>
+        <f t="shared" si="11"/>
+        <v>270844.99</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" si="6"/>
-        <v>42721384.301978908</v>
+        <f t="shared" si="3"/>
+        <v>359225.82345724903</v>
       </c>
       <c r="P47" s="1">
         <v>0.02</v>
       </c>
       <c r="Q47" s="7">
-        <f t="shared" si="7"/>
-        <v>4955474.18</v>
+        <f t="shared" si="12"/>
+        <v>41668.46</v>
       </c>
       <c r="R47" s="7">
-        <f t="shared" si="8"/>
-        <v>6572520.6618429087</v>
+        <f t="shared" si="4"/>
+        <v>55265.511301115235</v>
       </c>
       <c r="S47" s="1">
         <v>0.01</v>
       </c>
       <c r="T47" s="7">
-        <f t="shared" si="9"/>
-        <v>2477737.09</v>
+        <f t="shared" si="13"/>
+        <v>20834.23</v>
       </c>
       <c r="U47" s="7">
-        <f t="shared" si="10"/>
-        <v>3286260.3309214544</v>
+        <f t="shared" si="5"/>
+        <v>27632.755650557618</v>
       </c>
       <c r="V47" s="1">
         <v>0</v>
       </c>
       <c r="W47" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X47" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y47" s="10" t="s">
@@ -5149,67 +5173,67 @@
         <v>0.94</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>475751.86</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1298739.5155762082</v>
       </c>
       <c r="J48" s="1">
         <v>0.01</v>
       </c>
       <c r="K48" s="7">
+        <f t="shared" si="9"/>
+        <v>5061.1900000000005</v>
+      </c>
+      <c r="L48" s="7">
+        <f t="shared" si="10"/>
+        <v>13816.377825278812</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="N48" s="6">
+        <f t="shared" si="11"/>
+        <v>5061.1900000000005</v>
+      </c>
+      <c r="O48" s="7">
         <f t="shared" si="3"/>
+        <v>13816.377825278812</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="Q48" s="7">
+        <f t="shared" si="12"/>
         <v>5061.1900000000005</v>
       </c>
-      <c r="L48" s="7">
+      <c r="R48" s="7">
         <f t="shared" si="4"/>
         <v>13816.377825278812</v>
       </c>
-      <c r="M48" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="N48" s="6">
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="7">
         <f t="shared" si="5"/>
-        <v>2477737.09</v>
-      </c>
-      <c r="O48" s="7">
-        <f t="shared" si="6"/>
-        <v>6763893.8248014497</v>
-      </c>
-      <c r="P48" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="Q48" s="7">
-        <f t="shared" si="7"/>
-        <v>2477737.09</v>
-      </c>
-      <c r="R48" s="7">
-        <f t="shared" si="8"/>
-        <v>6763893.8248014497</v>
-      </c>
-      <c r="S48" s="1">
-        <v>0</v>
-      </c>
-      <c r="T48" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V48" s="1">
         <v>0.02</v>
       </c>
       <c r="W48" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>10122.380000000001</v>
       </c>
       <c r="X48" s="7">
-        <f t="shared" si="12"/>
-        <v>13527787.649602899</v>
+        <f t="shared" si="6"/>
+        <v>27632.755650557625</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>77</v>
@@ -5241,67 +5265,67 @@
         <v>0.62</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>4037794.02</v>
       </c>
       <c r="I49" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>3712000.1757249073</v>
       </c>
       <c r="J49" s="1">
         <v>0.19</v>
       </c>
       <c r="K49" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1237388.49</v>
       </c>
       <c r="L49" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1137548.4409479555</v>
       </c>
       <c r="M49" s="1">
         <v>0.1</v>
       </c>
       <c r="N49" s="6">
-        <f t="shared" si="5"/>
-        <v>24777370.900000002</v>
+        <f t="shared" si="11"/>
+        <v>651257.10000000009</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" si="6"/>
-        <v>22778181.5217016</v>
+        <f t="shared" si="3"/>
+        <v>598709.7057620819</v>
       </c>
       <c r="P49" s="1">
         <v>0.06</v>
       </c>
       <c r="Q49" s="7">
-        <f t="shared" si="7"/>
-        <v>14866422.539999999</v>
+        <f t="shared" si="12"/>
+        <v>390754.26</v>
       </c>
       <c r="R49" s="7">
-        <f t="shared" si="8"/>
-        <v>13666908.913020957</v>
+        <f t="shared" si="4"/>
+        <v>359225.82345724909</v>
       </c>
       <c r="S49" s="1">
         <v>0</v>
       </c>
       <c r="T49" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U49" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V49" s="1">
         <v>0.02</v>
       </c>
       <c r="W49" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>130251.42</v>
       </c>
       <c r="X49" s="7">
-        <f t="shared" si="12"/>
-        <v>4555636.3043403188</v>
+        <f t="shared" si="6"/>
+        <v>119741.94115241637</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>77</v>
@@ -5333,67 +5357,67 @@
         <v>0.69</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>3835371.2099999995</v>
       </c>
       <c r="I50" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>3813320.2797769508</v>
       </c>
       <c r="J50" s="1">
         <v>0.03</v>
       </c>
       <c r="K50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>166755.26999999999</v>
       </c>
       <c r="L50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>165796.5339033457</v>
       </c>
       <c r="M50" s="1">
         <v>0.13</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" si="5"/>
-        <v>32210582.170000002</v>
+        <f t="shared" si="11"/>
+        <v>722606.17</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" si="6"/>
-        <v>32025391.933909547</v>
+        <f t="shared" si="3"/>
+        <v>718451.64691449818</v>
       </c>
       <c r="P50" s="1">
         <v>0.08</v>
       </c>
       <c r="Q50" s="7">
-        <f t="shared" si="7"/>
-        <v>19821896.719999999</v>
+        <f t="shared" si="12"/>
+        <v>444680.72000000003</v>
       </c>
       <c r="R50" s="7">
-        <f t="shared" si="8"/>
-        <v>19707933.497790486</v>
+        <f t="shared" si="4"/>
+        <v>442124.09040892194</v>
       </c>
       <c r="S50" s="1">
         <v>0</v>
       </c>
       <c r="T50" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U50" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V50" s="1">
         <v>0.04</v>
       </c>
       <c r="W50" s="7">
-        <f t="shared" si="11"/>
-        <v>9910948.3599999994</v>
+        <f t="shared" si="14"/>
+        <v>222340.36000000002</v>
       </c>
       <c r="X50" s="7">
-        <f t="shared" si="12"/>
-        <v>9853966.7488952428</v>
+        <f t="shared" si="6"/>
+        <v>221062.04520446097</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>77</v>
@@ -5425,67 +5449,67 @@
         <v>0.93</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1362014.76</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2141538.5629182155</v>
       </c>
       <c r="J51" s="1">
         <v>0.03</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>43935.96</v>
       </c>
       <c r="L51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>69081.889126394046</v>
       </c>
       <c r="M51" s="1">
         <v>0.01</v>
       </c>
       <c r="N51" s="6">
+        <f t="shared" si="11"/>
+        <v>14645.32</v>
+      </c>
+      <c r="O51" s="7">
+        <f t="shared" si="3"/>
+        <v>23027.296375464684</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="7">
         <f t="shared" si="5"/>
-        <v>2477737.09</v>
-      </c>
-      <c r="O51" s="7">
-        <f t="shared" si="6"/>
-        <v>3895823.8066434474</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>0</v>
-      </c>
-      <c r="T51" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V51" s="1">
         <v>0.02</v>
       </c>
       <c r="W51" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>29290.639999999999</v>
       </c>
       <c r="X51" s="7">
-        <f t="shared" si="12"/>
-        <v>7791647.6132868947</v>
+        <f t="shared" si="6"/>
+        <v>46054.592750929369</v>
       </c>
       <c r="Y51" s="10" t="s">
         <v>76</v>
@@ -5517,67 +5541,67 @@
         <v>0.78</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>3491834.58</v>
       </c>
       <c r="I52" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>3592258.2345724907</v>
       </c>
       <c r="J52" s="1">
         <v>0.06</v>
       </c>
       <c r="K52" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>268602.65999999997</v>
       </c>
       <c r="L52" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>276327.55650557618</v>
       </c>
       <c r="M52" s="1">
         <v>0.1</v>
       </c>
       <c r="N52" s="6">
-        <f t="shared" si="5"/>
-        <v>24777370.900000002</v>
+        <f t="shared" si="11"/>
+        <v>447671.10000000003</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" si="6"/>
-        <v>25489957.386979602</v>
+        <f t="shared" si="3"/>
+        <v>460545.92750929372</v>
       </c>
       <c r="P52" s="1">
         <v>0.03</v>
       </c>
       <c r="Q52" s="7">
-        <f t="shared" si="7"/>
-        <v>7433211.2699999996</v>
+        <f t="shared" si="12"/>
+        <v>134301.32999999999</v>
       </c>
       <c r="R52" s="7">
-        <f t="shared" si="8"/>
-        <v>7646987.2160938792</v>
+        <f t="shared" si="4"/>
+        <v>138163.77825278809</v>
       </c>
       <c r="S52" s="1">
         <v>0</v>
       </c>
       <c r="T52" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U52" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V52" s="1">
         <v>0.02</v>
       </c>
       <c r="W52" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>89534.22</v>
       </c>
       <c r="X52" s="7">
-        <f t="shared" si="12"/>
-        <v>5097991.4773959192</v>
+        <f t="shared" si="6"/>
+        <v>92109.185501858738</v>
       </c>
       <c r="Y52" s="10" t="s">
         <v>76</v>
@@ -5609,67 +5633,67 @@
         <v>0.85</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>380130.2</v>
       </c>
       <c r="I53" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>1174392.1151486989</v>
       </c>
       <c r="J53" s="1">
         <v>0.01</v>
       </c>
       <c r="K53" s="7">
+        <f t="shared" si="9"/>
+        <v>4472.12</v>
+      </c>
+      <c r="L53" s="7">
+        <f>K53*F53</f>
+        <v>13816.377825278811</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="N53" s="6">
+        <f t="shared" si="11"/>
+        <v>40249.08</v>
+      </c>
+      <c r="O53" s="7">
         <f t="shared" si="3"/>
+        <v>124347.4004275093</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="Q53" s="7">
+        <f t="shared" si="12"/>
         <v>4472.12</v>
       </c>
-      <c r="L53" s="7">
+      <c r="R53" s="7">
         <f t="shared" si="4"/>
         <v>13816.377825278811</v>
       </c>
-      <c r="M53" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="N53" s="6">
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="7">
         <f t="shared" si="5"/>
-        <v>22299633.809999999</v>
-      </c>
-      <c r="O53" s="7">
-        <f t="shared" si="6"/>
-        <v>68893537.312129736</v>
-      </c>
-      <c r="P53" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="Q53" s="7">
-        <f t="shared" si="7"/>
-        <v>2477737.09</v>
-      </c>
-      <c r="R53" s="7">
-        <f t="shared" si="8"/>
-        <v>7654837.4791255258</v>
-      </c>
-      <c r="S53" s="1">
-        <v>0</v>
-      </c>
-      <c r="T53" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V53" s="1">
         <v>0.02</v>
       </c>
       <c r="W53" s="7">
-        <f t="shared" si="11"/>
-        <v>4955474.18</v>
+        <f t="shared" si="14"/>
+        <v>8944.24</v>
       </c>
       <c r="X53" s="7">
-        <f t="shared" si="12"/>
-        <v>15309674.958251052</v>
+        <f t="shared" si="6"/>
+        <v>27632.755650557621</v>
       </c>
       <c r="Y53" s="10" t="s">
         <v>76</v>
@@ -5681,8 +5705,8 @@
         <v>0.6140454838572077</v>
       </c>
       <c r="I54" s="9">
-        <f>SUM(I3:I53)/I2</f>
-        <v>1.0340666707294772</v>
+        <f>SUM(I3:I53)</f>
+        <v>156290865.95955384</v>
       </c>
       <c r="L54" s="9">
         <f>SUM(L3:L53)/L2</f>
@@ -5690,19 +5714,25 @@
       </c>
       <c r="O54" s="9">
         <f>SUM(O3:O53)/O2</f>
-        <v>42.396322811487089</v>
+        <v>0.92317224287484501</v>
       </c>
       <c r="R54" s="9">
         <f>SUM(R3:R53)/R2</f>
-        <v>48.415045975471813</v>
+        <v>0.88228004956629458</v>
       </c>
       <c r="U54" s="9">
         <f>SUM(U3:U53)/U2</f>
-        <v>89.09193707620247</v>
+        <v>0.4888475836431227</v>
       </c>
       <c r="X54" s="9">
         <f>SUM(X3:X53)/X2</f>
-        <v>80.199443564994098</v>
+        <v>0.94237918215613359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="I55" s="11">
+        <f>SUM(I3:I53)/I2</f>
+        <v>1.0340666707294772</v>
       </c>
     </row>
   </sheetData>

--- a/data/Processed.xlsx
+++ b/data/Processed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -807,10 +807,10 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="22840" ySplit="560" topLeftCell="A36" activePane="bottomLeft"/>
+      <pane xSplit="22840" ySplit="560" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="I35" sqref="I35"/>
       <selection pane="topRight" activeCell="K1" sqref="K1:K1048576"/>
-      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
       <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -966,7 +966,7 @@
         <v>0.18</v>
       </c>
       <c r="N2" s="6">
-        <f>247773709*M2</f>
+        <f>B2*M2</f>
         <v>44599267.619999997</v>
       </c>
       <c r="O2" s="7">

--- a/data/Processed.xlsx
+++ b/data/Processed.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
   <si>
     <t>Location</t>
   </si>
@@ -256,16 +257,53 @@
   </si>
   <si>
     <t>MixedVotingPower</t>
+  </si>
+  <si>
+    <t>Closest states</t>
+  </si>
+  <si>
+    <t>Michigan, 0.22%</t>
+  </si>
+  <si>
+    <t>New Hampshire, 0.37%</t>
+  </si>
+  <si>
+    <t>Pennsylvania, 0.72%</t>
+  </si>
+  <si>
+    <t>Wisconsin, 0.76%</t>
+  </si>
+  <si>
+    <t>Florida, 1.20%</t>
+  </si>
+  <si>
+    <t>Minnesota, 1.52%</t>
+  </si>
+  <si>
+    <t>Nevada, 2.42%</t>
+  </si>
+  <si>
+    <t>Maine, 2.96%</t>
+  </si>
+  <si>
+    <t>Arizona, 3.55%</t>
+  </si>
+  <si>
+    <t>North Carolina, 3.66%</t>
+  </si>
+  <si>
+    <t>Colorado, 4.91%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -355,7 +393,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -405,8 +443,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -425,8 +517,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="103">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -451,6 +551,33 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -474,6 +601,33 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -804,13 +958,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane xSplit="22840" ySplit="560" topLeftCell="A28" activePane="bottomLeft"/>
-      <selection activeCell="I35" sqref="I35"/>
+      <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="K1" sqref="K1:K1048576"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="M58" sqref="M58"/>
       <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -826,7 +980,7 @@
     <col min="10" max="10" width="10.83203125" style="1"/>
     <col min="11" max="11" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.1640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.1640625" style="8" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="1"/>
@@ -1136,11 +1290,11 @@
         <v>0.03</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" ref="K3:K53" si="9">J4*B4</f>
+        <f t="shared" ref="K4:K53" si="9">J4*B4</f>
         <v>16564.98</v>
       </c>
       <c r="L4" s="7">
-        <f t="shared" ref="L3:L53" si="10">K4*F4</f>
+        <f t="shared" ref="L4:L52" si="10">K4*F4</f>
         <v>41449.133475836425</v>
       </c>
       <c r="M4" s="1">
@@ -5701,24 +5855,36 @@
     </row>
     <row r="54" spans="1:25">
       <c r="H54" s="6">
-        <f>SUM(H3:H53)/247773709</f>
-        <v>0.6140454838572077</v>
+        <f>SUM(H3:H53)</f>
+        <v>152144327.02999997</v>
       </c>
       <c r="I54" s="9">
         <f>SUM(I3:I53)</f>
         <v>156290865.95955384</v>
       </c>
+      <c r="K54" s="6">
+        <f>SUM(K3:K53)</f>
+        <v>30567953.870000001</v>
+      </c>
       <c r="L54" s="9">
-        <f>SUM(L3:L53)/L2</f>
-        <v>1.032682775712515</v>
+        <f>SUM(L3:L53)</f>
+        <v>30704596.987044595</v>
+      </c>
+      <c r="N54" s="6">
+        <f>SUM(N3:N53)</f>
+        <v>43822350.510000005</v>
       </c>
       <c r="O54" s="9">
-        <f>SUM(O3:O53)/O2</f>
-        <v>0.92317224287484501</v>
+        <f>SUM(O3:O53)</f>
+        <v>41172805.91933085</v>
+      </c>
+      <c r="Q54" s="6">
+        <f>SUM(Q3:Q53)</f>
+        <v>13665848.509999998</v>
       </c>
       <c r="R54" s="9">
-        <f>SUM(R3:R53)/R2</f>
-        <v>0.88228004956629458</v>
+        <f>SUM(R3:R53)</f>
+        <v>13116348.015464678</v>
       </c>
       <c r="U54" s="9">
         <f>SUM(U3:U53)/U2</f>
@@ -5733,6 +5899,1171 @@
       <c r="I55" s="11">
         <f>SUM(I3:I53)/I2</f>
         <v>1.0340666707294772</v>
+      </c>
+      <c r="L55" s="11">
+        <f>L54/K54</f>
+        <v>1.0044701427392135</v>
+      </c>
+      <c r="O55" s="11">
+        <f>O54/N54</f>
+        <v>0.93953896676389947</v>
+      </c>
+      <c r="R55" s="11">
+        <f>R54/Q54</f>
+        <v>0.95979023957910681</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="L57" s="16"/>
+      <c r="M57" s="1">
+        <f>L54+O54+R54</f>
+        <v>84993750.921840116</v>
+      </c>
+      <c r="N57" s="6">
+        <f>K54+N54+Q54</f>
+        <v>88056152.890000015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="N58" s="17">
+        <f>M57/N57</f>
+        <v>0.96522216940381822</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="N61" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A23" sqref="A16:A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7715272</v>
+      </c>
+      <c r="C16" s="5">
+        <f>B16/B27</f>
+        <v>0.12018725994843206</v>
+      </c>
+      <c r="D16" s="4">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5">
+        <f>D16/D27</f>
+        <v>0.11940298507462686</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F27" si="0">E16/C16</f>
+        <v>0.99347455899950043</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="H16" s="6">
+        <f>G16*B16</f>
+        <v>5863606.7199999997</v>
+      </c>
+      <c r="I16" s="7">
+        <f>H16*F16</f>
+        <v>5825344.1002985071</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" ref="K16:K26" si="1">J16*B16</f>
+        <v>1080138.08</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" ref="L16:L23" si="2">K16*F16</f>
+        <v>1073089.7026865671</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" ref="N16:N26" si="3">B16*M16</f>
+        <v>385763.60000000003</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" ref="O16:O23" si="4">N16*F16</f>
+        <v>383246.32238805969</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" ref="Q16:Q26" si="5">B16*P16</f>
+        <v>231458.16</v>
+      </c>
+      <c r="R16" s="7">
+        <f t="shared" ref="R16:R26" si="6">Q16*F16</f>
+        <v>229947.79343283581</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1066610</v>
+      </c>
+      <c r="C17" s="5">
+        <f>B17/B28</f>
+        <v>1.6615478149519178E-2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5">
+        <f>D17/D28</f>
+        <v>2.9850746268656716E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7965625785810169</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ref="H17:H26" si="7">G17*B17</f>
+        <v>970615.1</v>
+      </c>
+      <c r="I17" s="7">
+        <f>H17*F17</f>
+        <v>1743770.7668656716</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="1"/>
+        <v>10666.1</v>
+      </c>
+      <c r="L17" s="7">
+        <f>K17*F17</f>
+        <v>19162.316119402985</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="3"/>
+        <v>31998.3</v>
+      </c>
+      <c r="O17" s="7">
+        <f>N17*F17</f>
+        <v>57486.948358208952</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" si="5"/>
+        <v>31998.3</v>
+      </c>
+      <c r="R17" s="7">
+        <f t="shared" si="6"/>
+        <v>57486.948358208952</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10112229</v>
+      </c>
+      <c r="C18" s="5">
+        <f>B18/B29</f>
+        <v>0.15752666859717623</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5">
+        <f>D18/D29</f>
+        <v>0.14925373134328357</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.9474823067892838</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="7"/>
+        <v>7685294.04</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" ref="I18:I26" si="8">H18*F18</f>
+        <v>7281680.1253731344</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="1"/>
+        <v>1011222.9</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>958115.80597014923</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="3"/>
+        <v>808978.32000000007</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="4"/>
+        <v>766492.6447761195</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="5"/>
+        <v>404489.16000000003</v>
+      </c>
+      <c r="R18" s="7">
+        <f t="shared" si="6"/>
+        <v>383246.32238805975</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4476711</v>
+      </c>
+      <c r="C19" s="5">
+        <f>B19/B30</f>
+        <v>6.9737480243211802E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5">
+        <f>D19/D30</f>
+        <v>7.4626865671641784E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0701113004280924</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="7"/>
+        <v>3491834.58</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="8"/>
+        <v>3736651.6432835818</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="1"/>
+        <v>268602.65999999997</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="2"/>
+        <v>287434.74179104471</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="3"/>
+        <v>447671.10000000003</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="4"/>
+        <v>479057.90298507467</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" si="5"/>
+        <v>134301.32999999999</v>
+      </c>
+      <c r="R19" s="7">
+        <f>Q19*F19</f>
+        <v>143717.37089552236</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2">
+        <v>16166143</v>
+      </c>
+      <c r="C20" s="5">
+        <f>B20/B31</f>
+        <v>0.25183356220033787</v>
+      </c>
+      <c r="D20" s="4">
+        <v>29</v>
+      </c>
+      <c r="E20" s="5">
+        <f>D20/D31</f>
+        <v>0.21641791044776118</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.8593688170744973</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="7"/>
+        <v>8729717.2200000007</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="8"/>
+        <v>7502046.7607462695</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="1"/>
+        <v>2586582.88</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>2222828.6698507462</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="3"/>
+        <v>4203197.18</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="4"/>
+        <v>3612096.5885074628</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" si="5"/>
+        <v>323322.86</v>
+      </c>
+      <c r="R20" s="7">
+        <f t="shared" si="6"/>
+        <v>277853.58373134327</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4205207</v>
+      </c>
+      <c r="C21" s="5">
+        <f>B21/B32</f>
+        <v>6.5508034823135997E-2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5">
+        <f>D21/D32</f>
+        <v>7.4626865671641784E-2</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1392017158372336</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="7"/>
+        <v>3448269.7399999998</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="8"/>
+        <v>3928274.8044776111</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="1"/>
+        <v>252312.41999999998</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="2"/>
+        <v>287434.74179104471</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="3"/>
+        <v>210260.35</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="4"/>
+        <v>239528.95149253728</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" si="5"/>
+        <v>126156.20999999999</v>
+      </c>
+      <c r="R21" s="7">
+        <f t="shared" si="6"/>
+        <v>143717.37089552236</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2221681</v>
+      </c>
+      <c r="C22" s="5">
+        <f>B22/B33</f>
+        <v>3.4608987456241656E-2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5">
+        <f>D22/D33</f>
+        <v>4.4776119402985072E-2</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>1.293771436092962</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="7"/>
+        <v>1110840.5</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="8"/>
+        <v>1437173.7089552239</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="1"/>
+        <v>199951.28999999998</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
+        <v>258691.26761194027</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="3"/>
+        <v>622070.68000000005</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="4"/>
+        <v>804817.27701492549</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="5"/>
+        <v>177734.48</v>
+      </c>
+      <c r="R22" s="7">
+        <f t="shared" si="6"/>
+        <v>229947.79343283584</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1072948</v>
+      </c>
+      <c r="C23" s="5">
+        <f>B23/B34</f>
+        <v>1.6714210488904382E-2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5">
+        <f>D23/D34</f>
+        <v>2.9850746268656716E-2</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7859501224106837</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="7"/>
+        <v>976382.68</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="8"/>
+        <v>1743770.7668656716</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="3"/>
+        <v>21458.959999999999</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="4"/>
+        <v>38324.632238805963</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q23" s="7">
+        <f t="shared" si="5"/>
+        <v>21458.959999999999</v>
+      </c>
+      <c r="R23" s="7">
+        <f t="shared" si="6"/>
+        <v>38324.632238805963</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5205215</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" ref="C24:C26" si="9">B24/B35</f>
+        <v>8.1085997783678629E-2</v>
+      </c>
+      <c r="D24" s="4">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ref="E24:E26" si="10">D24/D35</f>
+        <v>8.2089552238805971E-2</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0123764211153279</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="7"/>
+        <v>2654659.65</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="8"/>
+        <v>2687514.8357462687</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="1"/>
+        <v>208208.6</v>
+      </c>
+      <c r="L24" s="7">
+        <f>K24*F24</f>
+        <v>210785.47731343287</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="3"/>
+        <v>1925929.55</v>
+      </c>
+      <c r="O24" s="7">
+        <f>N24*F24</f>
+        <v>1949765.665149254</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q24" s="7">
+        <f t="shared" si="5"/>
+        <v>156156.44999999998</v>
+      </c>
+      <c r="R24" s="7">
+        <f t="shared" si="6"/>
+        <v>158089.10798507463</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7752234</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="9"/>
+        <v>0.12076304800907516</v>
+      </c>
+      <c r="D25" s="4">
+        <v>15</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="10"/>
+        <v>0.11194029850746269</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.92694164608242213</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="7"/>
+        <v>4806385.08</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="8"/>
+        <v>4455238.4977611946</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="1"/>
+        <v>1627969.14</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" ref="L25:L26" si="11">K25*F25</f>
+        <v>1509032.394402985</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="3"/>
+        <v>852745.74</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" ref="O25:O26" si="12">N25*F25</f>
+        <v>790445.53992537316</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="5"/>
+        <v>155044.68</v>
+      </c>
+      <c r="R25" s="7">
+        <f t="shared" si="6"/>
+        <v>143717.37089552238</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4199509</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="9"/>
+        <v>6.5419272300287004E-2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>9</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="10"/>
+        <v>6.7164179104477612E-2</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0266726721780266</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="7"/>
+        <v>2897661.21</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="8"/>
+        <v>2974949.577537314</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K26" s="7">
+        <f t="shared" si="1"/>
+        <v>167980.36000000002</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="11"/>
+        <v>172460.84507462691</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="3"/>
+        <v>881896.89</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="12"/>
+        <v>905419.43664179125</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="5"/>
+        <v>125985.26999999999</v>
+      </c>
+      <c r="R26" s="7">
+        <f t="shared" si="6"/>
+        <v>129345.63380597015</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="B27" s="8">
+        <f>SUM(B16:B26)</f>
+        <v>64193759</v>
+      </c>
+      <c r="C27" s="5">
+        <f>SUM(C16:C26)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D27">
+        <f>SUM(D16:D26)</f>
+        <v>134</v>
+      </c>
+      <c r="E27" s="15">
+        <f>SUM(E16:E26)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="12">
+        <f>SUM(H16:H26)</f>
+        <v>42635266.519999996</v>
+      </c>
+      <c r="I27" s="7">
+        <f>SUM(I16:I26)</f>
+        <v>43316415.587910451</v>
+      </c>
+      <c r="K27" s="12">
+        <f>SUM(K16:K26)</f>
+        <v>7413634.4299999997</v>
+      </c>
+      <c r="L27" s="7">
+        <f>SUM(L16:L26)</f>
+        <v>6999035.9626119388</v>
+      </c>
+      <c r="N27" s="12">
+        <f>SUM(N16:N26)</f>
+        <v>10391970.67</v>
+      </c>
+      <c r="O27" s="7">
+        <f>SUM(O16:O26)</f>
+        <v>10026681.909477612</v>
+      </c>
+      <c r="Q27" s="12">
+        <f>SUM(Q16:Q26)</f>
+        <v>1888105.8599999999</v>
+      </c>
+      <c r="R27" s="7">
+        <f>SUM(R16:R26)</f>
+        <v>1935393.9280597018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="B28" s="8">
+        <f>B27</f>
+        <v>64193759</v>
+      </c>
+      <c r="D28">
+        <f>D27</f>
+        <v>134</v>
+      </c>
+      <c r="H28" s="14">
+        <f>H27/64193759</f>
+        <v>0.66416528933910846</v>
+      </c>
+      <c r="I28" s="13">
+        <f>I27/H27</f>
+        <v>1.0159761888105221</v>
+      </c>
+      <c r="K28" s="14">
+        <f>K27/64193759</f>
+        <v>0.11548839864635439</v>
+      </c>
+      <c r="L28" s="13">
+        <f>L27/K27</f>
+        <v>0.94407621911995721</v>
+      </c>
+      <c r="N28" s="14">
+        <f>N27/64193759</f>
+        <v>0.16188443910879249</v>
+      </c>
+      <c r="O28" s="13">
+        <f>O27/N27</f>
+        <v>0.9648489423111134</v>
+      </c>
+      <c r="Q28" s="14">
+        <f>Q27/64193759</f>
+        <v>2.9412607851800669E-2</v>
+      </c>
+      <c r="R28" s="13">
+        <f>R27/Q27</f>
+        <v>1.0250452419334697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="B29" s="8">
+        <f t="shared" ref="B29:B37" si="13">B28</f>
+        <v>64193759</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D37" si="14">D28</f>
+        <v>134</v>
+      </c>
+      <c r="I29">
+        <f>I27/I32</f>
+        <v>0.69553846153846155</v>
+      </c>
+      <c r="L29">
+        <f>L27/I32</f>
+        <v>0.11238461538461536</v>
+      </c>
+      <c r="O29">
+        <f>O27/I32</f>
+        <v>0.161</v>
+      </c>
+      <c r="R29">
+        <f>R27/I32</f>
+        <v>3.1076923076923078E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="B30" s="8">
+        <f t="shared" si="13"/>
+        <v>64193759</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="14"/>
+        <v>134</v>
+      </c>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="B31" s="8">
+        <f t="shared" si="13"/>
+        <v>64193759</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="14"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="B32" s="8">
+        <f t="shared" si="13"/>
+        <v>64193759</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="14"/>
+        <v>134</v>
+      </c>
+      <c r="I32" s="8">
+        <f>I27+L27+O27+R27</f>
+        <v>62277527.388059705</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="8">
+        <f t="shared" si="13"/>
+        <v>64193759</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="14"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="8">
+        <f t="shared" si="13"/>
+        <v>64193759</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="14"/>
+        <v>134</v>
+      </c>
+      <c r="L34" s="12">
+        <f>K27+N27+Q27</f>
+        <v>19693710.960000001</v>
+      </c>
+      <c r="M34" s="8">
+        <f>L27+O27+R27</f>
+        <v>18961111.800149251</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="8">
+        <f t="shared" si="13"/>
+        <v>64193759</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="14"/>
+        <v>134</v>
+      </c>
+      <c r="M35" s="13">
+        <f>M34/L34</f>
+        <v>0.96280034974928108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="8">
+        <f t="shared" si="13"/>
+        <v>64193759</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="14"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="8">
+        <f t="shared" si="13"/>
+        <v>64193759</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="14"/>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
